--- a/biology/Zoologie/Ambastaia_nigrolineata/Ambastaia_nigrolineata.xlsx
+++ b/biology/Zoologie/Ambastaia_nigrolineata/Ambastaia_nigrolineata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Yasuhikotakia nigrolineata, Botia nigrolineata
 Ambastaia nigrolineata, Botia nigrolineata ou Yasuhikotakia nigrolineata, est un poisson asiatique originaire du Mékong.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ambastaia nigrolineata est aussi appelé par ses anciens noms, Botia nigrolineata et Yasuhikotakia nigrolineata. Ambastaia fait référence à la rivière Ambastai, correspondant au Mékong, et nigrolineata vient du latin nigro signifiant « noir » et de lineata signifiant « rayé »[4].Avant 1987, l'espèce était considérée comme appartenant à Ambastaia sidthimunki[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ambastaia nigrolineata est aussi appelé par ses anciens noms, Botia nigrolineata et Yasuhikotakia nigrolineata. Ambastaia fait référence à la rivière Ambastai, correspondant au Mékong, et nigrolineata vient du latin nigro signifiant « noir » et de lineata signifiant « rayé ».Avant 1987, l'espèce était considérée comme appartenant à Ambastaia sidthimunki.
 En anglais, ses noms vernaculaires sont Black-Lined Loach et Negro Loach.
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce poisson ressemble à Ambastaia sidthimunki, mais ses flancs ne comporte généralement que des lignes horizontales dorées et noires, à la différence de l'effet damier de son congénère. Il mesure en moyenne 8 cm, et la femelle est généralement plus massive que le mâle. Leur bouche est orientée vers le bas et ils possèdent des barbillons au-dessus de celle-ci. Ces poissons peuvent vivre plus de dix ans[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce poisson ressemble à Ambastaia sidthimunki, mais ses flancs ne comporte généralement que des lignes horizontales dorées et noires, à la différence de l'effet damier de son congénère. Il mesure en moyenne 8 cm, et la femelle est généralement plus massive que le mâle. Leur bouche est orientée vers le bas et ils possèdent des barbillons au-dessus de celle-ci. Ces poissons peuvent vivre plus de dix ans.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On le trouve en faible densité dans le Mékong et certains de ses affluents, au Laos, dans le nord de la Thaïlande et dans le sud de la Chine (yunnan). De plus sa population a fortement diminué, à cause de la construction de barrage hydroélectrique et de la pollution issue des activités agricoles[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On le trouve en faible densité dans le Mékong et certains de ses affluents, au Laos, dans le nord de la Thaïlande et dans le sud de la Chine (yunnan). De plus sa population a fortement diminué, à cause de la construction de barrage hydroélectrique et de la pollution issue des activités agricoles.
 Il vit amont des rivières à fond sablonneux et au courant rapide ou modéré.
 </t>
         </is>
@@ -607,7 +625,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ambastaia nigrolineata est omnivore, mais il a une préférence pour les proies vivantes comme les escargots d'eau douce.
 </t>
@@ -638,9 +658,11 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est classée Vulnérable (VU) sur la liste rouge de l'UICN, et est protégé par la loi thaïlandaise[6].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est classée Vulnérable (VU) sur la liste rouge de l'UICN, et est protégé par la loi thaïlandaise.
 </t>
         </is>
       </c>
@@ -669,10 +691,12 @@
           <t>Aquariophilie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ses poissons rustiques, sont devenus rares dans le commerce, depuis leur protection en Thaïlande, et du fait de la difficulté de leur élevage en captivité[6].
-Il est conseillé de les garder par groupes d'au moins 6 individus, et dans un aquarium de 150 litres bien plantés. La température de l'eau doit être comprise entre 20 et 25 degrés, et son pH doit être de 6 à 7[7].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses poissons rustiques, sont devenus rares dans le commerce, depuis leur protection en Thaïlande, et du fait de la difficulté de leur élevage en captivité.
+Il est conseillé de les garder par groupes d'au moins 6 individus, et dans un aquarium de 150 litres bien plantés. La température de l'eau doit être comprise entre 20 et 25 degrés, et son pH doit être de 6 à 7.
 </t>
         </is>
       </c>
